--- a/data-raw/BD_format.xlsx
+++ b/data-raw/BD_format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bourreta\Documents\Github\GenomicsMLI-DFO\BD-LabGeno-IML_gestion\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bourreta\Documents\Github\GenomicsMLI-DFO\BD-LabGeno-IML_gestion\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4FF13F-7A7F-4E2A-8429-53102E76B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BC942-E5DE-4F98-BD08-B379C4949786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{ABA34925-8846-4775-8702-4D4077D49CA5}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ABA34925-8846-4775-8702-4D4077D49CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="9" r:id="rId1"/>
@@ -1488,10 +1488,11 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1541,20 +1542,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1575,8 +1571,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,10 +1924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -1954,645 +1974,646 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="31" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="15" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="16" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="7" customFormat="1"/>
+    <row r="9" spans="1:33" s="22" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DCCB31-F863-40F4-95B5-0C6BE514FCA4}">
   <dimension ref="A1:FR35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.5546875" defaultRowHeight="14.4"/>
@@ -2640,383 +2661,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
     </row>
     <row r="2" spans="1:174">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
@@ -3033,7 +3054,7 @@
       </c>
     </row>
     <row r="3" spans="1:174">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B3" t="s">
@@ -3047,10 +3068,10 @@
       </c>
     </row>
     <row r="4" spans="1:174">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C4" t="s">
@@ -3059,27 +3080,27 @@
       <c r="D4" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:174">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C5" t="s">
@@ -3088,27 +3109,27 @@
       <c r="D5" t="s">
         <v>391</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:174">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C6" t="s">
@@ -3117,86 +3138,86 @@
       <c r="D6" t="s">
         <v>391</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:174">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>431</v>
       </c>
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:174">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
@@ -3210,7 +3231,7 @@
       </c>
     </row>
     <row r="9" spans="1:174">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B9" t="s">
@@ -3242,7 +3263,7 @@
       </c>
     </row>
     <row r="10" spans="1:174">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B10" t="s">
@@ -3254,7 +3275,7 @@
       <c r="D10" t="s">
         <v>422</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>423</v>
       </c>
       <c r="F10" t="s">
@@ -3268,7 +3289,7 @@
       </c>
     </row>
     <row r="11" spans="1:174">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B11">
@@ -3282,7 +3303,7 @@
       </c>
     </row>
     <row r="12" spans="1:174">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B12" t="s">
@@ -3296,7 +3317,7 @@
       </c>
     </row>
     <row r="13" spans="1:174">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -3337,7 +3358,7 @@
       </c>
     </row>
     <row r="14" spans="1:174">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B14" t="s">
@@ -3378,7 +3399,7 @@
       </c>
     </row>
     <row r="15" spans="1:174">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
@@ -3419,23 +3440,23 @@
       </c>
     </row>
     <row r="16" spans="1:174">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -3485,7 +3506,7 @@
       </c>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B19">
@@ -3535,7 +3556,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="15" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B20">
@@ -3585,7 +3606,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="15" thickBot="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3599,435 +3620,435 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="29.4" thickBot="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="V22" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Z22" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AA22" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AB22" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AC22" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="W23" s="12" t="s">
+      <c r="W23" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:29" ht="15" thickBot="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="S24" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="W24" s="12" t="s">
+      <c r="W24" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="Y24" s="12" t="s">
+      <c r="Y24" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AA24" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AB24" s="12" t="s">
+      <c r="AB24" s="9" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4042,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C72DEFF-7720-4B8E-B4D3-1283341468DF}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4053,19 +4074,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4221,7 +4242,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
@@ -4230,7 +4251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B1" t="s">
@@ -4241,7 +4262,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B2">
@@ -4252,7 +4273,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B3">
@@ -4263,7 +4284,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B4">
@@ -4274,7 +4295,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B5">
@@ -4285,7 +4306,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>396</v>
       </c>
       <c r="B6">
@@ -4296,7 +4317,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -4307,7 +4328,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B8">
@@ -4316,12 +4337,12 @@
       <c r="C8">
         <v>2050</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B9">
@@ -4332,7 +4353,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B10">
@@ -4343,7 +4364,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B11">
@@ -4354,7 +4375,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B12">
@@ -4365,7 +4386,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B13">
@@ -4376,7 +4397,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B14">
@@ -4387,7 +4408,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>394</v>
       </c>
       <c r="B15">
@@ -4398,7 +4419,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B16">
@@ -4409,7 +4430,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B17">
@@ -4420,7 +4441,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -4431,7 +4452,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B19">
@@ -4442,7 +4463,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B20">
@@ -4453,7 +4474,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4464,7 +4485,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B22">
@@ -4475,7 +4496,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B23">
@@ -4486,7 +4507,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B24">
@@ -4497,7 +4518,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B25">
@@ -4508,7 +4529,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B26">
@@ -4519,7 +4540,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B27">
@@ -4530,7 +4551,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B28">

--- a/data-raw/BD_format.xlsx
+++ b/data-raw/BD_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bourreta\Documents\Github\GenomicsMLI-DFO\BD-LabGeno-IML_gestion\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BC942-E5DE-4F98-BD08-B379C4949786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A75F0-4E72-4224-81BF-9924678963B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ABA34925-8846-4775-8702-4D4077D49CA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ABA34925-8846-4775-8702-4D4077D49CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="471">
   <si>
     <t>Numero_unique_groupe</t>
   </si>
@@ -317,24 +317,12 @@
     <t>Numero_puits_extrait</t>
   </si>
   <si>
-    <t>Numero_congelateur_extraits</t>
-  </si>
-  <si>
-    <t>Etage</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
     <t>Modifications_extraitADN</t>
   </si>
   <si>
     <t>Notes_extraitADN</t>
   </si>
   <si>
-    <t>No_plaque</t>
-  </si>
-  <si>
     <t>No_puits</t>
   </si>
   <si>
@@ -1443,6 +1431,27 @@
   </si>
   <si>
     <t>MspI_PstI</t>
+  </si>
+  <si>
+    <t>No_plaque_envoi</t>
+  </si>
+  <si>
+    <t>No_puits_envoi</t>
+  </si>
+  <si>
+    <t>Concentration_envoi</t>
+  </si>
+  <si>
+    <t>Volume_preleve_envoi</t>
+  </si>
+  <si>
+    <t>Etage_congelateur_extrait</t>
+  </si>
+  <si>
+    <t>Numero_congelateur_extrait</t>
+  </si>
+  <si>
+    <t>Rack_congelateur_extrait</t>
   </si>
 </sst>
 </file>
@@ -1925,42 +1934,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -1973,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B752619B-3059-47B9-8FCC-423DBBDD3D2D}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2014,108 +2023,108 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
@@ -2139,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>7</v>
@@ -2178,10 +2187,10 @@
         <v>18</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="X2" s="16" t="s">
         <v>19</v>
@@ -2210,7 +2219,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>48</v>
@@ -2293,7 +2302,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>29</v>
@@ -2358,7 +2367,7 @@
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1">
       <c r="A5" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>29</v>
@@ -2376,16 +2385,16 @@
         <v>74</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>76</v>
@@ -2436,24 +2445,24 @@
         <v>91</v>
       </c>
       <c r="AA5" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AE5" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>29</v>
@@ -2462,49 +2471,49 @@
         <v>72</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="J6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="N6" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>75</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" thickBot="1">
@@ -2518,36 +2527,36 @@
         <v>72</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="15" thickBot="1">
       <c r="A8" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>72</v>
@@ -2556,61 +2565,61 @@
         <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="O8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="R8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="T8" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="U8" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="22" customFormat="1"/>
@@ -2625,7 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DCCB31-F863-40F4-95B5-0C6BE514FCA4}">
   <dimension ref="A1:FR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2662,304 +2671,304 @@
   <sheetData>
     <row r="1" spans="1:174">
       <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="CW1" s="3"/>
       <c r="CX1" s="3"/>
@@ -3041,88 +3050,88 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:174">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:174">
       <c r="A4" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:174">
       <c r="A5" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:174">
@@ -3130,28 +3139,28 @@
         <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:174">
@@ -3159,61 +3168,61 @@
         <v>64</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:174">
@@ -3221,13 +3230,13 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:174">
@@ -3235,31 +3244,31 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" t="s">
         <v>175</v>
       </c>
-      <c r="E9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>179</v>
-      </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:174">
@@ -3267,25 +3276,25 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" t="s">
         <v>420</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>421</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>422</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" t="s">
-        <v>425</v>
-      </c>
-      <c r="H10" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:174">
@@ -3304,16 +3313,16 @@
     </row>
     <row r="12" spans="1:174">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:174">
@@ -3321,40 +3330,40 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
         <v>214</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>215</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>216</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>217</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>218</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>219</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>220</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>221</v>
-      </c>
-      <c r="J13" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" t="s">
-        <v>224</v>
-      </c>
-      <c r="M13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:174">
@@ -3362,40 +3371,40 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" t="s">
         <v>214</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>215</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>216</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>217</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>218</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
         <v>219</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>220</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>221</v>
-      </c>
-      <c r="J14" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" t="s">
-        <v>224</v>
-      </c>
-      <c r="M14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:174">
@@ -3403,56 +3412,56 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" t="s">
         <v>214</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>215</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>216</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>217</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>218</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>220</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>221</v>
-      </c>
-      <c r="J15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L15" t="s">
-        <v>224</v>
-      </c>
-      <c r="M15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:174">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -3610,13 +3619,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="29.4" thickBot="1">
@@ -3624,88 +3633,88 @@
         <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="G22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="O22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="X22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="Y22" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="Z22" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="AA22" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="AB22" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="Y22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="AC22" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1">
@@ -3713,70 +3722,70 @@
         <v>32</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="O23" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="T23" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="V23" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="W23" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -3789,85 +3798,85 @@
         <v>33</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="M24" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="N24" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="O24" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="P24" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="Q24" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="R24" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="S24" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="T24" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="U24" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="V24" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="W24" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="X24" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="Y24" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="Z24" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="W24" s="9" t="s">
+      <c r="AA24" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="AB24" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="Y24" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA24" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB24" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3875,19 +3884,19 @@
         <v>68</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3895,85 +3904,85 @@
         <v>82</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3981,16 +3990,16 @@
         <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3998,16 +4007,16 @@
         <v>47</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4015,41 +4024,41 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -4075,19 +4084,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4095,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4104,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4112,7 +4121,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4121,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4129,7 +4138,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4138,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4146,7 +4155,7 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4155,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4163,7 +4172,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4172,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4180,7 +4189,7 @@
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4189,7 +4198,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4197,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4206,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4214,7 +4223,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4223,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4252,13 +4261,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4285,7 +4294,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.6">
       <c r="A4" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>1980</v>
@@ -4307,7 +4316,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B6">
         <v>1980</v>
@@ -4354,7 +4363,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>1980</v>
@@ -4387,7 +4396,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.6">
       <c r="A13" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4409,7 +4418,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4453,7 +4462,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4486,7 +4495,7 @@
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1">
       <c r="A22" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4508,7 +4517,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4552,7 +4561,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4585,10 +4594,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4596,7 +4605,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4604,23 +4613,23 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4628,7 +4637,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4636,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4644,7 +4653,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4652,7 +4661,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4660,7 +4669,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4668,7 +4677,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4676,7 +4685,7 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4684,7 +4693,7 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4692,7 +4701,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4700,7 +4709,7 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1">
@@ -4708,47 +4717,47 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4756,31 +4765,31 @@
         <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
